--- a/2021/Project plan.xlsx
+++ b/2021/Project plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabarishsridhar/Projects/Daily Work Space/2021/April/Day 10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabarishsridhar/Projects/Daily Work Space/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C4BE46E-EDA2-3241-ADCA-DE3AE4FFC367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD27CA1-9BAE-1F44-9067-6777E35BC27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15800" xr2:uid="{E22AB5D5-22F4-1C49-A8F0-181B73A9A826}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E22AB5D5-22F4-1C49-A8F0-181B73A9A826}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Project</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>ML</t>
+  </si>
+  <si>
+    <t>https://github.com/udacity/CVND---Image-Captioning-Project</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://github.com/udacity/P1_Facial_Keypoints</t>
   </si>
 </sst>
 </file>
@@ -250,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +288,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,20 +607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A18B9E-F9E9-004C-A8F2-5438ED36E419}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="48.1640625" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
+    <col min="4" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -621,11 +633,14 @@
       <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -638,9 +653,12 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="E2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -653,9 +671,12 @@
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -667,8 +688,9 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -681,9 +703,10 @@
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -696,9 +719,10 @@
       <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -711,51 +735,62 @@
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{E3F6575D-E2EF-544B-9F48-9CABC6284CB0}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{E4E79BC2-DC4B-AB45-982D-D5180C742795}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
